--- a/data/pca/factorExposure/factorExposure_2013-02-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-13.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006699308568417817</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001869563735209384</v>
+      </c>
+      <c r="C2">
+        <v>-0.03231974040186745</v>
+      </c>
+      <c r="D2">
+        <v>0.004732767318394207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001664540383419033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.00622255352542604</v>
+      </c>
+      <c r="C4">
+        <v>-0.08436755189530257</v>
+      </c>
+      <c r="D4">
+        <v>0.07935441251784765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0003508074064490594</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01397637508891207</v>
+      </c>
+      <c r="C6">
+        <v>-0.1127212443192261</v>
+      </c>
+      <c r="D6">
+        <v>0.03260182893427926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001320164583401549</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004931944110169722</v>
+      </c>
+      <c r="C7">
+        <v>-0.05731132662985412</v>
+      </c>
+      <c r="D7">
+        <v>0.03504663701389154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001908601422648322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005770166053501305</v>
+      </c>
+      <c r="C8">
+        <v>-0.03787863710852457</v>
+      </c>
+      <c r="D8">
+        <v>0.04438397301475528</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003737503020063958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004374566469464449</v>
+      </c>
+      <c r="C9">
+        <v>-0.07064494848540193</v>
+      </c>
+      <c r="D9">
+        <v>0.07061855623122162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.004459697479510158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005368614802405493</v>
+      </c>
+      <c r="C10">
+        <v>-0.05743903100381101</v>
+      </c>
+      <c r="D10">
+        <v>-0.2016391022811135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002702522839939909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005733343242892454</v>
+      </c>
+      <c r="C11">
+        <v>-0.08089370696843765</v>
+      </c>
+      <c r="D11">
+        <v>0.06055573809855219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0005770874453262025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004125058118867617</v>
+      </c>
+      <c r="C12">
+        <v>-0.06450577958807528</v>
+      </c>
+      <c r="D12">
+        <v>0.04434488639305926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003307869263323996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008668010232919066</v>
+      </c>
+      <c r="C13">
+        <v>-0.06644468496008359</v>
+      </c>
+      <c r="D13">
+        <v>0.06245029679914255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001254451668783019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001542622404576632</v>
+      </c>
+      <c r="C14">
+        <v>-0.04628631291513049</v>
+      </c>
+      <c r="D14">
+        <v>0.00599489281785987</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009963192316829843</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006005946315610167</v>
+      </c>
+      <c r="C15">
+        <v>-0.04277833359801294</v>
+      </c>
+      <c r="D15">
+        <v>0.0278499673712832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001165399570398093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.00510067485052447</v>
+      </c>
+      <c r="C16">
+        <v>-0.06616459770181199</v>
+      </c>
+      <c r="D16">
+        <v>0.04530500207299346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>4.395211956149234e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008847122812231071</v>
+      </c>
+      <c r="C20">
+        <v>-0.06600441077924984</v>
+      </c>
+      <c r="D20">
+        <v>0.04308812698664881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005179570402047229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100625571203271</v>
+      </c>
+      <c r="C21">
+        <v>-0.02225361999217736</v>
+      </c>
+      <c r="D21">
+        <v>0.03497359252040046</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01742013898609386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006517687208340032</v>
+      </c>
+      <c r="C22">
+        <v>-0.09599168040222729</v>
+      </c>
+      <c r="D22">
+        <v>0.09710528030978428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0177309795856737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006336342645466785</v>
+      </c>
+      <c r="C23">
+        <v>-0.09679696801505598</v>
+      </c>
+      <c r="D23">
+        <v>0.09733110096305071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001728250098103685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005386552100775198</v>
+      </c>
+      <c r="C24">
+        <v>-0.07604189094475916</v>
+      </c>
+      <c r="D24">
+        <v>0.06030597099469634</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003727143272205592</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002964904932040995</v>
+      </c>
+      <c r="C25">
+        <v>-0.07794063104556265</v>
+      </c>
+      <c r="D25">
+        <v>0.06511146748616102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.005621825869906707</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003586715633692957</v>
+      </c>
+      <c r="C26">
+        <v>-0.04153920832190262</v>
+      </c>
+      <c r="D26">
+        <v>0.02082380694371934</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.004291369937008213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.001111512328271493</v>
+      </c>
+      <c r="C28">
+        <v>-0.1057340200244287</v>
+      </c>
+      <c r="D28">
+        <v>-0.3174288727723044</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001157220894638254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003165001586255456</v>
+      </c>
+      <c r="C29">
+        <v>-0.04958859300996006</v>
+      </c>
+      <c r="D29">
+        <v>0.004099876955461336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.00301741647787611</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009255930575709217</v>
+      </c>
+      <c r="C30">
+        <v>-0.1424921569823204</v>
+      </c>
+      <c r="D30">
+        <v>0.09940219965252646</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0007941566431705787</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006209822080866798</v>
+      </c>
+      <c r="C31">
+        <v>-0.04551048159932582</v>
+      </c>
+      <c r="D31">
+        <v>0.03117528263416678</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0004907462385071211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004076915270501014</v>
+      </c>
+      <c r="C32">
+        <v>-0.04143774610677606</v>
+      </c>
+      <c r="D32">
+        <v>0.01706188737910496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002486592950842017</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008267853110689763</v>
+      </c>
+      <c r="C33">
+        <v>-0.08621022180744503</v>
+      </c>
+      <c r="D33">
+        <v>0.0697039257687643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004224995369966095</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003966636895042596</v>
+      </c>
+      <c r="C34">
+        <v>-0.05762070016348011</v>
+      </c>
+      <c r="D34">
+        <v>0.05110547602043802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002456131218008886</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005129871080732044</v>
+      </c>
+      <c r="C35">
+        <v>-0.04041183176385786</v>
+      </c>
+      <c r="D35">
+        <v>0.01399115910114568</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004116289683754311</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001226382323831952</v>
+      </c>
+      <c r="C36">
+        <v>-0.02446916624695401</v>
+      </c>
+      <c r="D36">
+        <v>0.0222431722094463</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002702982144446119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009472992528182804</v>
+      </c>
+      <c r="C38">
+        <v>-0.0348458864298941</v>
+      </c>
+      <c r="D38">
+        <v>0.01544181378883351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01176363747856069</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.000591961331372496</v>
+      </c>
+      <c r="C39">
+        <v>-0.1166597112906772</v>
+      </c>
+      <c r="D39">
+        <v>0.0710705857830343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008976836842768997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002502818409466071</v>
+      </c>
+      <c r="C40">
+        <v>-0.08835267882540736</v>
+      </c>
+      <c r="D40">
+        <v>0.01847040102318071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0003499927989883258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007289069475842212</v>
+      </c>
+      <c r="C41">
+        <v>-0.03793766516450075</v>
+      </c>
+      <c r="D41">
+        <v>0.0339100995077498</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003119619579919629</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003812693484037302</v>
+      </c>
+      <c r="C43">
+        <v>-0.05257773471143778</v>
+      </c>
+      <c r="D43">
+        <v>0.02356243763354209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.002582428539863773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003297193475880906</v>
+      </c>
+      <c r="C44">
+        <v>-0.1103224808705241</v>
+      </c>
+      <c r="D44">
+        <v>0.06960369905750986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001553073216973575</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002302175282096705</v>
+      </c>
+      <c r="C46">
+        <v>-0.03354669179352502</v>
+      </c>
+      <c r="D46">
+        <v>0.03063020712425502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0004838782662597766</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002651602797637799</v>
+      </c>
+      <c r="C47">
+        <v>-0.03739481555333302</v>
+      </c>
+      <c r="D47">
+        <v>0.02193805977065339</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003676071100296435</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006505219126021276</v>
+      </c>
+      <c r="C48">
+        <v>-0.02973274473934136</v>
+      </c>
+      <c r="D48">
+        <v>0.0317923132004776</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01282843263971179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01514977183558276</v>
+      </c>
+      <c r="C49">
+        <v>-0.182485352189536</v>
+      </c>
+      <c r="D49">
+        <v>0.01099995523905641</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0003907310393029503</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00357626486099186</v>
+      </c>
+      <c r="C50">
+        <v>-0.04408699147056702</v>
+      </c>
+      <c r="D50">
+        <v>0.03379316010057853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008962532241901827</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004425868102107241</v>
+      </c>
+      <c r="C51">
+        <v>-0.02679562135633437</v>
+      </c>
+      <c r="D51">
+        <v>0.01844823064860696</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0006895422858609153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02058292564183712</v>
+      </c>
+      <c r="C53">
+        <v>-0.1689219206315964</v>
+      </c>
+      <c r="D53">
+        <v>0.03512292389873575</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001446328697884842</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008641630334795817</v>
+      </c>
+      <c r="C54">
+        <v>-0.05528437525018551</v>
+      </c>
+      <c r="D54">
+        <v>0.0416514902772658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003968579375925912</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009421331704117974</v>
+      </c>
+      <c r="C55">
+        <v>-0.1096861420475069</v>
+      </c>
+      <c r="D55">
+        <v>0.04290323468526516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003282797137562994</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01986591501666738</v>
+      </c>
+      <c r="C56">
+        <v>-0.1745153860567895</v>
+      </c>
+      <c r="D56">
+        <v>0.03378305022459203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006702870077959056</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0198162233503768</v>
+      </c>
+      <c r="C58">
+        <v>-0.1116876305889558</v>
+      </c>
+      <c r="D58">
+        <v>0.04614420546497618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006533853690748566</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009365952400502994</v>
+      </c>
+      <c r="C59">
+        <v>-0.1612323578321092</v>
+      </c>
+      <c r="D59">
+        <v>-0.3103974111227637</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003540596724623641</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02358762698503772</v>
+      </c>
+      <c r="C60">
+        <v>-0.2206200854670484</v>
+      </c>
+      <c r="D60">
+        <v>0.03299793495619645</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01382518324673174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001722988072521549</v>
+      </c>
+      <c r="C61">
+        <v>-0.09608532458384594</v>
+      </c>
+      <c r="D61">
+        <v>0.05704573854256743</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1677647201545617</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1444890250755066</v>
+      </c>
+      <c r="C62">
+        <v>-0.09122587071838636</v>
+      </c>
+      <c r="D62">
+        <v>0.05065907139369068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.00113839393736456</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006217046388451121</v>
+      </c>
+      <c r="C63">
+        <v>-0.05558875010342396</v>
+      </c>
+      <c r="D63">
+        <v>0.0226970514031199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.001324079846141504</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01525081630091113</v>
+      </c>
+      <c r="C64">
+        <v>-0.1046358846841634</v>
+      </c>
+      <c r="D64">
+        <v>0.05954019556507012</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002421299903003532</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01772669705613881</v>
+      </c>
+      <c r="C65">
+        <v>-0.1216764470897177</v>
+      </c>
+      <c r="D65">
+        <v>0.01734264579797325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.006911015876003878</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01310224502536648</v>
+      </c>
+      <c r="C66">
+        <v>-0.1603161645391245</v>
+      </c>
+      <c r="D66">
+        <v>0.1136237284427099</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004009050275150851</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0156206244798173</v>
+      </c>
+      <c r="C67">
+        <v>-0.06578922173478606</v>
+      </c>
+      <c r="D67">
+        <v>0.02476500621688104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.0061304463403917</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0004099980668835547</v>
+      </c>
+      <c r="C68">
+        <v>-0.0861513059334312</v>
+      </c>
+      <c r="D68">
+        <v>-0.2567686350511735</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002389308903249914</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006101787802833812</v>
+      </c>
+      <c r="C69">
+        <v>-0.05036486684463273</v>
+      </c>
+      <c r="D69">
+        <v>0.03753807808990407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0003290300928141273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.00187280062411762</v>
+      </c>
+      <c r="C70">
+        <v>-0.002851166125733095</v>
+      </c>
+      <c r="D70">
+        <v>0.001548836692230431</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0003017443681254585</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.0056607669675527</v>
+      </c>
+      <c r="C71">
+        <v>-0.09615829159038274</v>
+      </c>
+      <c r="D71">
+        <v>-0.307937507911768</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004457518434013535</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01592951745428607</v>
+      </c>
+      <c r="C72">
+        <v>-0.1526299285449311</v>
+      </c>
+      <c r="D72">
+        <v>0.02078789107492828</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01170025443806855</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03023158736953767</v>
+      </c>
+      <c r="C73">
+        <v>-0.2776021747455365</v>
+      </c>
+      <c r="D73">
+        <v>0.05019195234751695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004370377835839058</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001821995734610519</v>
+      </c>
+      <c r="C74">
+        <v>-0.1053323856958418</v>
+      </c>
+      <c r="D74">
+        <v>0.03711148069458869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002496136405219491</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0109888609563135</v>
+      </c>
+      <c r="C75">
+        <v>-0.1280299610278801</v>
+      </c>
+      <c r="D75">
+        <v>0.02500229278032216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009713533382260161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02164715061829867</v>
+      </c>
+      <c r="C76">
+        <v>-0.1498744132602701</v>
+      </c>
+      <c r="D76">
+        <v>0.06258657773712512</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001175653052479493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02374898413306168</v>
+      </c>
+      <c r="C77">
+        <v>-0.1295980854566738</v>
+      </c>
+      <c r="D77">
+        <v>0.07443568156612138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001075633092052673</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01461130465904835</v>
+      </c>
+      <c r="C78">
+        <v>-0.09460380728778345</v>
+      </c>
+      <c r="D78">
+        <v>0.06922020823846602</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02392868807207119</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03749063771898711</v>
+      </c>
+      <c r="C79">
+        <v>-0.1558836701479567</v>
+      </c>
+      <c r="D79">
+        <v>0.03557419276265027</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.00515279105535245</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01057976937907209</v>
+      </c>
+      <c r="C80">
+        <v>-0.04224084806520422</v>
+      </c>
+      <c r="D80">
+        <v>0.02888470932351471</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001257759082240505</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01534866415957717</v>
+      </c>
+      <c r="C81">
+        <v>-0.1278995057722175</v>
+      </c>
+      <c r="D81">
+        <v>0.04200981820044528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005884580749194987</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01974107392292467</v>
+      </c>
+      <c r="C82">
+        <v>-0.1422579174828391</v>
+      </c>
+      <c r="D82">
+        <v>0.04184808809832725</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009323126800084614</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01010741845640417</v>
+      </c>
+      <c r="C83">
+        <v>-0.05760895183765277</v>
+      </c>
+      <c r="D83">
+        <v>0.05378293430457619</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01364020186887691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01161604725738894</v>
+      </c>
+      <c r="C84">
+        <v>-0.03599925917980158</v>
+      </c>
+      <c r="D84">
+        <v>-0.01033140093394157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01454812339382166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02809612181971281</v>
+      </c>
+      <c r="C85">
+        <v>-0.1255929999510779</v>
+      </c>
+      <c r="D85">
+        <v>0.04733990754180983</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0006962431164266238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005741442129728666</v>
+      </c>
+      <c r="C86">
+        <v>-0.04839990957983043</v>
+      </c>
+      <c r="D86">
+        <v>0.02089853160077978</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00404832528138749</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01026416586158899</v>
+      </c>
+      <c r="C87">
+        <v>-0.1319779012940792</v>
+      </c>
+      <c r="D87">
+        <v>0.06797178703142785</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01241132094652871</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002809591182964711</v>
+      </c>
+      <c r="C88">
+        <v>-0.06761020944541553</v>
+      </c>
+      <c r="D88">
+        <v>0.01260168941629002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01468223097240345</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001723908862398808</v>
+      </c>
+      <c r="C89">
+        <v>-0.1446220649623585</v>
+      </c>
+      <c r="D89">
+        <v>-0.3427300651437469</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.00216645614980629</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006683834721932633</v>
+      </c>
+      <c r="C90">
+        <v>-0.1199387788184397</v>
+      </c>
+      <c r="D90">
+        <v>-0.3258894687907296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001346176219706634</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0104510970166187</v>
+      </c>
+      <c r="C91">
+        <v>-0.1034384803900235</v>
+      </c>
+      <c r="D91">
+        <v>0.02197164276636412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008063383845680835</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006265516012502184</v>
+      </c>
+      <c r="C92">
+        <v>-0.1355594498542669</v>
+      </c>
+      <c r="D92">
+        <v>-0.3305158626047388</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>6.617876371939917e-06</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.004667197709930694</v>
+      </c>
+      <c r="C93">
+        <v>-0.10423777368855</v>
+      </c>
+      <c r="D93">
+        <v>-0.309392337191888</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.004227135819743967</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02256476224980778</v>
+      </c>
+      <c r="C94">
+        <v>-0.1494887664000751</v>
+      </c>
+      <c r="D94">
+        <v>0.05345728884284027</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004862248847833176</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01629129611643104</v>
+      </c>
+      <c r="C95">
+        <v>-0.1266479881301869</v>
+      </c>
+      <c r="D95">
+        <v>0.05554389697183306</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.00171996220520585</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03576344772770284</v>
+      </c>
+      <c r="C97">
+        <v>-0.2113243247288557</v>
+      </c>
+      <c r="D97">
+        <v>-0.01056574273474495</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003552908990365096</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03652312154047983</v>
+      </c>
+      <c r="C98">
+        <v>-0.2493256186638298</v>
+      </c>
+      <c r="D98">
+        <v>0.04603133760768636</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.983995593129985</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9823422237902723</v>
+      </c>
+      <c r="C99">
+        <v>0.1153295195931068</v>
+      </c>
+      <c r="D99">
+        <v>-0.02862149048986172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0010625324922674</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003201713469155923</v>
+      </c>
+      <c r="C101">
+        <v>-0.04977348859855159</v>
+      </c>
+      <c r="D101">
+        <v>0.004185707577992098</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
